--- a/data/financial_statements/socf/STZ.xlsx
+++ b/data/financial_statements/socf/STZ.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+  <si>
+    <t>2022-11-30</t>
+  </si>
+  <si>
+    <t>2022-08-31</t>
+  </si>
+  <si>
+    <t>2022-05-31</t>
+  </si>
+  <si>
+    <t>2022-02-28</t>
+  </si>
+  <si>
+    <t>2021-11-30</t>
+  </si>
+  <si>
+    <t>2021-08-31</t>
+  </si>
+  <si>
+    <t>2021-05-31</t>
+  </si>
+  <si>
+    <t>2021-02-28</t>
+  </si>
+  <si>
+    <t>2020-11-30</t>
+  </si>
+  <si>
+    <t>2020-08-31</t>
+  </si>
+  <si>
+    <t>2020-05-31</t>
+  </si>
+  <si>
+    <t>2020-02-29</t>
+  </si>
+  <si>
+    <t>2019-11-30</t>
+  </si>
+  <si>
+    <t>2019-08-31</t>
+  </si>
+  <si>
+    <t>2019-05-31</t>
+  </si>
+  <si>
+    <t>2019-02-28</t>
+  </si>
+  <si>
+    <t>2018-11-30</t>
+  </si>
+  <si>
+    <t>2018-08-31</t>
+  </si>
+  <si>
+    <t>2018-05-31</t>
+  </si>
+  <si>
+    <t>2018-02-28</t>
+  </si>
+  <si>
+    <t>2017-11-30</t>
+  </si>
+  <si>
+    <t>2017-08-31</t>
+  </si>
+  <si>
+    <t>2017-05-31</t>
+  </si>
+  <si>
+    <t>2017-02-28</t>
+  </si>
+  <si>
+    <t>2016-11-30</t>
+  </si>
+  <si>
+    <t>2016-08-31</t>
+  </si>
+  <si>
+    <t>2016-05-31</t>
+  </si>
+  <si>
+    <t>2016-02-29</t>
+  </si>
+  <si>
+    <t>2015-11-30</t>
+  </si>
+  <si>
+    <t>2015-08-31</t>
+  </si>
+  <si>
+    <t>2015-05-31</t>
+  </si>
+  <si>
+    <t>2015-02-28</t>
+  </si>
+  <si>
+    <t>2014-11-30</t>
+  </si>
+  <si>
+    <t>2014-08-31</t>
+  </si>
+  <si>
+    <t>2014-05-31</t>
+  </si>
+  <si>
+    <t>2014-02-28</t>
+  </si>
+  <si>
+    <t>2013-11-30</t>
+  </si>
+  <si>
+    <t>2013-08-31</t>
+  </si>
+  <si>
+    <t>2013-05-31</t>
+  </si>
+  <si>
+    <t>2013-02-28</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -116,9 +236,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -171,12 +288,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -481,132 +595,132 @@
   <sheetData>
     <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44895</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44804</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44712</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44620</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44530</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44439</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44347</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44255</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44165</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44074</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43982</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43890</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43799</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43708</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43616</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43524</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43434</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43343</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43251</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43159</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43069</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42978</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42886</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42794</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42704</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42613</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42521</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42429</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42338</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42247</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42155</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42063</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41973</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41882</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41790</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41698</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41608</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41517</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41425</v>
-      </c>
-      <c r="AO1" s="2">
-        <v>41333</v>
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:41">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
         <v>479700000</v>
@@ -730,8 +844,8 @@
       </c>
     </row>
     <row r="3" spans="1:41">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
         <v>97800000</v>
@@ -743,10 +857,10 @@
         <v>110400000</v>
       </c>
       <c r="E3">
-        <v>-569700000</v>
+        <v>96200000</v>
       </c>
       <c r="F3">
-        <v>754600000</v>
+        <v>88700000</v>
       </c>
       <c r="G3">
         <v>118700000</v>
@@ -855,8 +969,8 @@
       </c>
     </row>
     <row r="4" spans="1:41">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
         <v>87600000</v>
@@ -868,10 +982,10 @@
         <v>268500000</v>
       </c>
       <c r="E4">
-        <v>837100000</v>
+        <v>171200000</v>
       </c>
       <c r="F4">
-        <v>-399200000</v>
+        <v>266700000</v>
       </c>
       <c r="G4">
         <v>591100000</v>
@@ -980,8 +1094,8 @@
       </c>
     </row>
     <row r="5" spans="1:41">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
         <v>59500000</v>
@@ -1105,8 +1219,8 @@
       </c>
     </row>
     <row r="6" spans="1:41">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
         <v>-173000000</v>
@@ -1230,8 +1344,8 @@
       </c>
     </row>
     <row r="7" spans="1:41">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
         <v>-1500000</v>
@@ -1355,8 +1469,8 @@
       </c>
     </row>
     <row r="8" spans="1:41">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
         <v>40700000</v>
@@ -1480,8 +1594,8 @@
       </c>
     </row>
     <row r="9" spans="1:41">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
         <v>24500000</v>
@@ -1605,8 +1719,8 @@
       </c>
     </row>
     <row r="10" spans="1:41">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
         <v>11000000</v>
@@ -1730,8 +1844,8 @@
       </c>
     </row>
     <row r="11" spans="1:41">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
         <v>626300000</v>
@@ -1855,8 +1969,8 @@
       </c>
     </row>
     <row r="12" spans="1:41">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
         <v>-248800000</v>
@@ -1980,8 +2094,8 @@
       </c>
     </row>
     <row r="13" spans="1:41">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
         <v>96800000</v>
@@ -2090,8 +2204,8 @@
       </c>
     </row>
     <row r="14" spans="1:41">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
         <v>-8500000</v>
@@ -2158,8 +2272,8 @@
       </c>
     </row>
     <row r="15" spans="1:41">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
         <v>-100000</v>
@@ -2283,8 +2397,8 @@
       </c>
     </row>
     <row r="16" spans="1:41">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
         <v>-160600000</v>
@@ -2408,8 +2522,8 @@
       </c>
     </row>
     <row r="17" spans="1:41">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
         <v>1208099900</v>
@@ -2533,8 +2647,8 @@
       </c>
     </row>
     <row r="18" spans="1:41">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
         <v>6200000</v>
@@ -2658,8 +2772,8 @@
       </c>
     </row>
     <row r="19" spans="1:41">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
         <v>-145800000</v>
@@ -2756,8 +2870,8 @@
       </c>
     </row>
     <row r="20" spans="1:41">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
         <v>-1515800000</v>
@@ -2881,8 +2995,8 @@
       </c>
     </row>
     <row r="21" spans="1:41">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
         <v>-447300000</v>
@@ -3006,8 +3120,8 @@
       </c>
     </row>
     <row r="22" spans="1:41">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
         <v>1500000</v>
@@ -3131,8 +3245,8 @@
       </c>
     </row>
     <row r="23" spans="1:41">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
         <v>19900000</v>
@@ -3256,8 +3370,8 @@
       </c>
     </row>
     <row r="24" spans="1:41">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3381,8 +3495,8 @@
       </c>
     </row>
     <row r="25" spans="1:41">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
         <v>19900000</v>
@@ -3506,8 +3620,8 @@
       </c>
     </row>
     <row r="26" spans="1:41">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
         <v>18300000</v>
@@ -3631,8 +3745,8 @@
       </c>
     </row>
     <row r="27" spans="1:41">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
         <v>-145800000</v>
@@ -3756,8 +3870,8 @@
       </c>
     </row>
     <row r="28" spans="1:41">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
         <v>0.2453</v>
@@ -3769,10 +3883,10 @@
         <v>0.235</v>
       </c>
       <c r="E28">
-        <v>0.2485</v>
+        <v>0.2616</v>
       </c>
       <c r="F28">
-        <v>0.2351</v>
+        <v>0.2367</v>
       </c>
       <c r="G28">
         <v>0.2601</v>
@@ -3881,8 +3995,8 @@
       </c>
     </row>
     <row r="29" spans="1:41">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
         <v>-49800000</v>
@@ -4006,8 +4120,8 @@
       </c>
     </row>
     <row r="30" spans="1:41">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
         <v>-8500000</v>
@@ -4074,8 +4188,8 @@
       </c>
     </row>
     <row r="31" spans="1:41">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
         <v>6200000</v>
@@ -4199,8 +4313,8 @@
       </c>
     </row>
     <row r="32" spans="1:41">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
         <v>6200000</v>
